--- a/Output_Comparison.xlsx
+++ b/Output_Comparison.xlsx
@@ -531,7 +531,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'OR ART. 214 Abs. 1', 'OR ART. 184 Abs. 1', 'OR ART. 185 Abs. 1'}</t>
+          <t>{'OR ART. 185 Abs. 1', 'OR ART. 184 Abs. 1', 'OR ART. 214 Abs. 1'}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -567,7 +567,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'OR ART. 185 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 119 Abs. 2', 'OR ART. 185 Abs. 2', 'OR ART. 119 Abs. 3'}</t>
+          <t>{'OR ART. 109 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 2', 'OR ART. 119 Abs. 3', 'OR ART. 119 Abs. 2'}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -603,10 +603,18 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'OR ART. 259e', 'OR ART. 257g', 'OR ART. 259d', 'OR ART. 266g'}</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -679,10 +687,18 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'StGB Art. 179quater', 'OR Art. 19 Abs. 1', 'UrhG Art. 11 Abs. 2', 'ZGB Art. 28a', 'UrhG Art. 13', 'OR Art. 67 Abs. 1', 'OR Art. 41', 'UrhG Art. 20', 'UrhG Art. 28', 'UrhG Art. 15', 'OR Art. 97 Abs. 1', 'OR Art. 423 Abs. 1', 'UrhG Art. 29', 'ZGB Art. 328b', 'UrhG Art. 19 Abs. 1', 'OR Art. 62 Abs. 1', 'UrhG Art. 40', 'ZGB Art. 28 Abs. 1', 'UrhG Art. 36', 'ZGB Art. 28 Abs. 2'}</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -723,10 +739,18 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>{'OR ART. 18', 'OR ART. 24', 'OR ART. 23', 'OR ART. 97', 'OR ART. 367', 'OR ART. 404', 'OR ART. 364', 'OR ART. 107', 'OR ART. 1', 'OR ART. 363', 'OR ART. 109'}</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -764,10 +788,18 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>{'OR ART. 330c', 'OR ART. 330b', 'OR ART. 330a', 'OR ART. 335'}</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -797,10 +829,18 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>{'OR ART. 185 Abs. 1', 'OR ART. 184 Abs. 1', 'OR ART. 214 Abs. 1'}</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -836,10 +876,18 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'OR ART. 109 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 2', 'OR ART. 119 Abs. 3', 'OR ART. 119 Abs. 2'}</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -875,10 +923,18 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>{'OR ART. 185 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 109', 'OR ART. 119 Abs. 2'}</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -912,10 +968,18 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 3', 'OR ART. 185 Abs. 2', 'OR ART. 99 Abs. 3'}</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>

--- a/Output_Comparison.xlsx
+++ b/Output_Comparison.xlsx
@@ -531,7 +531,9 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'OR ART. 185 Abs. 1', 'OR ART. 184 Abs. 1', 'OR ART. 214 Abs. 1'}</t>
+          <t>OR ART. 214 Abs. 1
+OR ART. 185 Abs. 1
+OR ART. 184 Abs. 1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -567,7 +569,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'OR ART. 109 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 2', 'OR ART. 119 Abs. 3', 'OR ART. 119 Abs. 2'}</t>
+          <t>OR ART. 119 Abs. 2
+OR ART. 109 Abs. 1
+OR ART. 185 Abs. 2
+OR ART. 119 Abs. 3
+OR ART. 185 Abs. 1
+OR ART. 119 Abs. 1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -605,7 +612,10 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'OR ART. 259e', 'OR ART. 257g', 'OR ART. 259d', 'OR ART. 266g'}</t>
+          <t>OR ART. 257g
+OR ART. 259d
+OR ART. 259e
+OR ART. 266g</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -689,7 +699,37 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'StGB Art. 179quater', 'OR Art. 19 Abs. 1', 'UrhG Art. 11 Abs. 2', 'ZGB Art. 28a', 'UrhG Art. 13', 'OR Art. 67 Abs. 1', 'OR Art. 41', 'UrhG Art. 20', 'UrhG Art. 28', 'UrhG Art. 15', 'OR Art. 97 Abs. 1', 'OR Art. 423 Abs. 1', 'UrhG Art. 29', 'ZGB Art. 328b', 'UrhG Art. 19 Abs. 1', 'OR Art. 62 Abs. 1', 'UrhG Art. 40', 'ZGB Art. 28 Abs. 1', 'UrhG Art. 36', 'ZGB Art. 28 Abs. 2'}</t>
+          <t>OR Art. 328b Abs. 3
+ZGB Art. 28a Abs. 1
+UrhG Art. 15
+UrhG Art. 40
+UrhG Art. 36
+OR Art. 67 Abs. 1
+OR Art. 19 Abs. 1
+UrhG Art. 11 Abs. 1
+OR Art. 62 Abs. 2
+UrhG Art. 32
+UrhG Art. 28 Abs. 1
+ZGB Art. 28 Abs. 2
+UrhG Art. 19 Abs. 1
+OR Art. 328b Abs. 1
+OR Art. 41 Abs. 1
+ZGB Art. 28 Abs. 1
+UrhG Art. 11 Abs. 2
+UrhG Art. 30
+UrhG Art. 80
+UrhG Art. 13
+OR Art. 62 Abs. 1
+ZGB Art. 306
+UrhG Art. 28 Abs. 3
+UrhG Art. 31
+OR Art. 328b Abs. 2
+ZGB Art. 28a Abs. 2
+ZGB Art. 28a Abs. 3
+UrhG Art. 28 Abs. 2
+UrhG Art. 19 Abs. 2
+UrhG Art. 29
+OR Art. 68 Abs. 1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -741,7 +781,21 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'OR ART. 18', 'OR ART. 24', 'OR ART. 23', 'OR ART. 97', 'OR ART. 367', 'OR ART. 404', 'OR ART. 364', 'OR ART. 107', 'OR ART. 1', 'OR ART. 363', 'OR ART. 109'}</t>
+          <t>OR ART. 394
+OR ART. 97
+OR ART. 1
+OR ART. 18
+OR ART. 24
+OR ART. 377
+OR ART. 109
+OR ART. 107
+OR ART. 404
+OR ART. 378
+OR ART. 364
+OR ART. 372
+OR ART. 23
+OR ART. 363
+OR ART. 367</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -790,7 +844,10 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'OR ART. 330c', 'OR ART. 330b', 'OR ART. 330a', 'OR ART. 335'}</t>
+          <t>OR ART. 335
+OR ART. 330a
+OR ART. 330b
+OR ART. 330c</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -831,7 +888,10 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'OR ART. 185 Abs. 1', 'OR ART. 184 Abs. 1', 'OR ART. 214 Abs. 1'}</t>
+          <t>OR ART. 216 Abs. 1
+OR ART. 214 Abs. 1
+OR ART. 185 Abs. 1
+OR ART. 184 Abs. 1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -878,7 +938,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'OR ART. 109 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 2', 'OR ART. 119 Abs. 3', 'OR ART. 119 Abs. 2'}</t>
+          <t>OR ART. 119 Abs. 2
+OR ART. 109 Abs. 1
+OR ART. 185 Abs. 2
+OR ART. 119 Abs. 3
+OR ART. 185 Abs. 1
+OR ART. 119 Abs. 1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -925,7 +990,10 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'OR ART. 185 Abs. 1', 'OR ART. 119 Abs. 1', 'OR ART. 109', 'OR ART. 119 Abs. 2'}</t>
+          <t>OR ART. 119 Abs. 2
+OR ART. 109
+OR ART. 185 Abs. 1
+OR ART. 119 Abs. 1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -970,15 +1038,17 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'OR ART. 185 Abs. 1', 'OR ART. 185 Abs. 3', 'OR ART. 185 Abs. 2', 'OR ART. 99 Abs. 3'}</t>
+          <t>OR ART. 185 Abs. 2
+OR ART. 97 Abs. 1
+OR ART. 185 Abs. 1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1015,10 +1085,20 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>OR ART. 74 Abs. 1
+OR ART. 75
+OR ART. 189 Abs. 1</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1054,10 +1134,20 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>OR ART. 107 Abs. 1
+OR ART. 108 Abs. 1
+OR ART. 184 Abs. 1</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1094,10 +1184,22 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OR ART. 197 Abs. 1
+OR ART. 201
+OR ART. 210
+OR ART. 202
+OR ART. 203</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1127,10 +1229,27 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>OR ART. 197 Abs. 1
+OR ART. 208 Abs. 1
+OR ART. 197 Abs. 2
+OR ART. 207 Abs. 1
+OR ART. 210 Abs. 2
+OR ART. 205 Abs. 1
+OR ART. 210 Abs. 3
+OR ART. 210 Abs. 1
+OR ART. 206 Abs. 1
+OR ART. 208 Abs. 2</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1164,10 +1283,19 @@
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 1
+OR ART. 184 Abs. 1</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1201,10 +1329,19 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>OR ART. 189 Abs. 1
+OR ART. 185 Abs. 1</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1238,10 +1375,18 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>OR ART. 216 Abs. 1</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1275,10 +1420,19 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>OR ART. 97 Abs. 1
+OR ART. 98 Abs. 1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1312,10 +1466,19 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 1
+OR ART. 184 Abs. 1</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1345,10 +1508,20 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 2
+OR ART. 185 Abs. 1
+OR ART. 185 Abs. 3</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1382,10 +1555,18 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 1</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1419,10 +1600,18 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 1</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1456,10 +1645,18 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>OR ART. 185 Abs. 1</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1489,10 +1686,28 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>OR ART. 208
+OR ART. 201
+OR ART. 190
+OR ART. 108
+OR ART. 107 Abs. 1
+OR ART. 191
+OR ART. 185
+OR ART. 202
+OR ART. 197
+OR ART. 203
+OR ART. 192</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1527,10 +1742,21 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>OR ART. 107 Abs. 1
+OR ART. 102 Abs. 2
+OR ART. 108 Abs. 1
+OR ART. 184 Abs. 1</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1565,10 +1791,20 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>OR ART. 214 Abs. 1
+OR ART. 216 Abs. 1
+OR ART. 184 Abs. 1</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1602,10 +1838,19 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>OR ART. 108 Abs. 1
+OR ART. 75 Abs. 1</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1635,10 +1880,19 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>OR ART. 107 Abs. 1
+OR ART. 75 Abs. 1</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1672,10 +1926,20 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>OR ART. 107 Abs. 1
+OR ART. 108 Abs. 1
+OR ART. 75 Abs. 1</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1709,10 +1973,19 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>OR ART. 107 Abs. 1
+OR ART. 108 Abs. 1</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
